--- a/데이터/written_excel.xlsx
+++ b/데이터/written_excel.xlsx
@@ -462,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,10 +495,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
